--- a/results/case2/data_uniquie_case2_cut_off_recipe.xlsx
+++ b/results/case2/data_uniquie_case2_cut_off_recipe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
   </si>
@@ -85,18 +85,12 @@
     <t>'MUD manufacturing' (unit, GLO, None)</t>
   </si>
   <si>
-    <t>'MUD packgaging materials' (kilogram, GLO, None)</t>
-  </si>
-  <si>
     <t>'MUD raw materials' (unit, GLO, None)</t>
   </si>
   <si>
     <t>'SUD manufacturing' (unit, GLO, None)</t>
   </si>
   <si>
-    <t>'SUD packgaging materials' (kilogram, GLO, None)</t>
-  </si>
-  <si>
     <t>'SUD raw materials' (unit, GLO, None)</t>
   </si>
   <si>
@@ -116,6 +110,9 @@
   </si>
   <si>
     <t>'mixed heating grid' (megajoule, DK, None)</t>
+  </si>
+  <si>
+    <t>'packgaging materials' (kilogram, GLO, None)</t>
   </si>
   <si>
     <t>'scalpel' (unit, GLO, None)</t>
@@ -485,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,67 +558,67 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.0004736323514450507</v>
+        <v>0.0004736323531902951</v>
       </c>
       <c r="C2">
-        <v>0.3862536565234949</v>
+        <v>0.3862536567369079</v>
       </c>
       <c r="D2">
-        <v>0.01497165351504979</v>
+        <v>0.01497165360365069</v>
       </c>
       <c r="E2">
-        <v>0.02107834809121363</v>
+        <v>0.02107834820459089</v>
       </c>
       <c r="F2">
-        <v>0.9134591600651326</v>
+        <v>0.9134591672290189</v>
       </c>
       <c r="G2">
-        <v>0.1320906385078829</v>
+        <v>0.132090638541547</v>
       </c>
       <c r="H2">
-        <v>2.145254321505341E-05</v>
+        <v>2.145254334179422E-05</v>
       </c>
       <c r="I2">
-        <v>-1.125500104006118E-05</v>
+        <v>-1.125500102871176E-05</v>
       </c>
       <c r="J2">
-        <v>0.006456039650871966</v>
+        <v>0.006456039711246721</v>
       </c>
       <c r="K2">
-        <v>0.1746681968712469</v>
+        <v>0.1746681981472614</v>
       </c>
       <c r="L2">
-        <v>0.0004251809817445603</v>
+        <v>0.0004251809409908925</v>
       </c>
       <c r="M2">
-        <v>-0.03875858488656259</v>
+        <v>-0.03875858496673498</v>
       </c>
       <c r="N2">
-        <v>0.001871329403581446</v>
+        <v>0.001871329423813635</v>
       </c>
       <c r="O2">
-        <v>-5.051354266132265E-08</v>
+        <v>-5.05135426089687E-08</v>
       </c>
       <c r="P2">
-        <v>0.0002084037280947808</v>
+        <v>0.0002084037287867266</v>
       </c>
       <c r="Q2">
-        <v>0.0004060844707829253</v>
+        <v>0.0004060844718048558</v>
       </c>
       <c r="R2">
-        <v>0.000434882672136264</v>
+        <v>0.0004348826731659451</v>
       </c>
       <c r="S2">
-        <v>0.001025514549038512</v>
+        <v>0.001025514548582533</v>
       </c>
       <c r="T2">
-        <v>9.318390774597757E-10</v>
+        <v>9.318390780883763E-10</v>
       </c>
       <c r="U2">
-        <v>5.532418265081042E-07</v>
+        <v>5.532418276318385E-07</v>
       </c>
       <c r="V2">
-        <v>0.05259373509207189</v>
+        <v>0.05259373510429306</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -629,67 +626,67 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>0.0006720016529814539</v>
+        <v>0.0006720016502318195</v>
       </c>
       <c r="C3">
-        <v>0.1822838747120243</v>
+        <v>0.1822838745106484</v>
       </c>
       <c r="D3">
-        <v>0.04125832712283758</v>
+        <v>0.0412583269606995</v>
       </c>
       <c r="E3">
-        <v>0.0520185742089067</v>
+        <v>0.05201857400210402</v>
       </c>
       <c r="F3">
-        <v>2.31940676891975</v>
+        <v>2.319406755300487</v>
       </c>
       <c r="G3">
-        <v>0.04712924022624433</v>
+        <v>0.04712924017983398</v>
       </c>
       <c r="H3">
-        <v>0.0001769691979822687</v>
+        <v>0.0001769691978420875</v>
       </c>
       <c r="I3">
-        <v>9.346028898659113E-05</v>
+        <v>9.34602889781687E-05</v>
       </c>
       <c r="J3">
-        <v>0.01724853620366054</v>
+        <v>0.01724853618315651</v>
       </c>
       <c r="K3">
-        <v>0.5708937249952882</v>
+        <v>0.5708937226279801</v>
       </c>
       <c r="L3">
-        <v>0.05102670418937061</v>
+        <v>0.05102670422686811</v>
       </c>
       <c r="M3">
-        <v>0.03440791975045705</v>
+        <v>0.03440791972570543</v>
       </c>
       <c r="N3">
-        <v>0.003585839350731312</v>
+        <v>0.003585839327346763</v>
       </c>
       <c r="O3">
-        <v>1.955897124840315E-07</v>
+        <v>1.955897124245902E-07</v>
       </c>
       <c r="P3">
-        <v>0.0002307194041128162</v>
+        <v>0.0002307194032066729</v>
       </c>
       <c r="Q3">
-        <v>0.000389389650451775</v>
+        <v>0.0003893896494939081</v>
       </c>
       <c r="R3">
-        <v>0.0003990601667814314</v>
+        <v>0.0003990601658005933</v>
       </c>
       <c r="S3">
-        <v>0.003187288208642336</v>
+        <v>0.003187288207323631</v>
       </c>
       <c r="T3">
-        <v>1.188712155254122E-09</v>
+        <v>1.188712153377731E-09</v>
       </c>
       <c r="U3">
-        <v>5.094927265619302E-07</v>
+        <v>5.094927251945848E-07</v>
       </c>
       <c r="V3">
-        <v>0.009766875770379725</v>
+        <v>0.009766875749068102</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -697,67 +694,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>0.009064027549985055</v>
+        <v>4.330347993029695E-06</v>
       </c>
       <c r="C4">
-        <v>3.206511206238769</v>
+        <v>0.000850990717232358</v>
       </c>
       <c r="D4">
-        <v>0.08084504366790615</v>
+        <v>0.0008178324572446282</v>
       </c>
       <c r="E4">
-        <v>0.1082171998539578</v>
+        <v>0.001299277201236256</v>
       </c>
       <c r="F4">
-        <v>7.507900460105565</v>
+        <v>0.01129818844279398</v>
       </c>
       <c r="G4">
-        <v>1.898750871726093</v>
+        <v>0.0002195650388316374</v>
       </c>
       <c r="H4">
-        <v>0.0007928509569661312</v>
+        <v>1.290391705635863E-06</v>
       </c>
       <c r="I4">
-        <v>0.0001122478953341482</v>
+        <v>5.317155789187223E-08</v>
       </c>
       <c r="J4">
-        <v>0.1304213849112703</v>
+        <v>0.0003469885779851799</v>
       </c>
       <c r="K4">
-        <v>1.940271967760711</v>
+        <v>0.01382368016838754</v>
       </c>
       <c r="L4">
-        <v>0.203159452995133</v>
+        <v>5.155661507676391E-05</v>
       </c>
       <c r="M4">
-        <v>0.09232798898808239</v>
+        <v>4.302014139301727E-05</v>
       </c>
       <c r="N4">
-        <v>0.02530561280196739</v>
+        <v>9.83505700265904E-05</v>
       </c>
       <c r="O4">
-        <v>5.821816273680765E-07</v>
+        <v>2.490863569725781E-09</v>
       </c>
       <c r="P4">
-        <v>0.00403371304960117</v>
+        <v>2.146506544479381E-06</v>
       </c>
       <c r="Q4">
-        <v>0.007820575372649873</v>
+        <v>4.589231037298453E-06</v>
       </c>
       <c r="R4">
-        <v>0.008528142755332939</v>
+        <v>4.701156854478506E-06</v>
       </c>
       <c r="S4">
-        <v>0.04847674902530035</v>
+        <v>6.794295877662559E-06</v>
       </c>
       <c r="T4">
-        <v>1.350617313875177E-08</v>
+        <v>5.985201980284616E-12</v>
       </c>
       <c r="U4">
-        <v>6.502239356238281E-06</v>
+        <v>6.465426484554398E-09</v>
       </c>
       <c r="V4">
-        <v>0.7136914442881797</v>
+        <v>8.635492537871419E-05</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -765,67 +762,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>4.330348003916117E-06</v>
+        <v>0.01470091483426409</v>
       </c>
       <c r="C5">
-        <v>0.0008509907184866929</v>
+        <v>0.743171159477789</v>
       </c>
       <c r="D5">
-        <v>0.0008178324579110405</v>
+        <v>1.327090703594711</v>
       </c>
       <c r="E5">
-        <v>0.001299277202095843</v>
+        <v>1.706688601356524</v>
       </c>
       <c r="F5">
-        <v>0.01129818850592537</v>
+        <v>106.6649559267866</v>
       </c>
       <c r="G5">
-        <v>0.0002195650391505464</v>
+        <v>0.2028813173957399</v>
       </c>
       <c r="H5">
-        <v>1.290391706806414E-06</v>
+        <v>0.001891765987055451</v>
       </c>
       <c r="I5">
-        <v>5.317155794965918E-08</v>
+        <v>5.553644765764613E-05</v>
       </c>
       <c r="J5">
-        <v>0.0003469885786237893</v>
+        <v>0.1574755161786229</v>
       </c>
       <c r="K5">
-        <v>0.01382368017867963</v>
+        <v>19.95067496207796</v>
       </c>
       <c r="L5">
-        <v>5.155661524279493E-05</v>
+        <v>0.09955149215540984</v>
       </c>
       <c r="M5">
-        <v>4.302014332801961E-05</v>
+        <v>0.05491246587700339</v>
       </c>
       <c r="N5">
-        <v>9.835057022315607E-05</v>
+        <v>0.06851265250929148</v>
       </c>
       <c r="O5">
-        <v>2.490863570163239E-09</v>
+        <v>4.740746330471341E-07</v>
       </c>
       <c r="P5">
-        <v>2.146506548835438E-06</v>
+        <v>0.005099328677918071</v>
       </c>
       <c r="Q5">
-        <v>4.589231041676611E-06</v>
+        <v>0.003484290355146163</v>
       </c>
       <c r="R5">
-        <v>4.701156859039238E-06</v>
+        <v>0.003572382082810517</v>
       </c>
       <c r="S5">
-        <v>6.794295895120419E-06</v>
+        <v>0.0106576607380835</v>
       </c>
       <c r="T5">
-        <v>5.985202005926093E-12</v>
+        <v>9.728937512952595E-09</v>
       </c>
       <c r="U5">
-        <v>6.465426492965964E-09</v>
+        <v>8.991574870853061E-06</v>
       </c>
       <c r="V5">
-        <v>8.635492550096649E-05</v>
+        <v>0.06463772705952882</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -833,67 +830,67 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.01470091483822605</v>
+        <v>0.002276159142640958</v>
       </c>
       <c r="C6">
-        <v>0.7431711598246324</v>
+        <v>0.163927060085746</v>
       </c>
       <c r="D6">
-        <v>1.327090704000057</v>
+        <v>0.01652985342961517</v>
       </c>
       <c r="E6">
-        <v>1.706688601875089</v>
+        <v>0.02262727787367442</v>
       </c>
       <c r="F6">
-        <v>106.6649559670301</v>
+        <v>4.073295788029245</v>
       </c>
       <c r="G6">
-        <v>0.2028813174913253</v>
+        <v>0.06828633357561087</v>
       </c>
       <c r="H6">
-        <v>0.00189176598764761</v>
+        <v>4.842529410946194E-05</v>
       </c>
       <c r="I6">
-        <v>5.553644766869255E-05</v>
+        <v>9.17305477118551E-06</v>
       </c>
       <c r="J6">
-        <v>0.1574755165801782</v>
+        <v>0.0277351488313713</v>
       </c>
       <c r="K6">
-        <v>19.95067496789606</v>
+        <v>0.3015071884462611</v>
       </c>
       <c r="L6">
-        <v>0.09955149233331534</v>
+        <v>0.009418586883967369</v>
       </c>
       <c r="M6">
-        <v>0.05491246633753183</v>
+        <v>0.00291270590693022</v>
       </c>
       <c r="N6">
-        <v>0.06851265260721649</v>
+        <v>0.009177714657397126</v>
       </c>
       <c r="O6">
-        <v>4.740746332116441E-07</v>
+        <v>8.146910465792237E-08</v>
       </c>
       <c r="P6">
-        <v>0.00509932867966507</v>
+        <v>0.0007630774463188088</v>
       </c>
       <c r="Q6">
-        <v>0.003484290355487674</v>
+        <v>0.0004023391399685072</v>
       </c>
       <c r="R6">
-        <v>0.003572382083267161</v>
+        <v>0.0004310165202858939</v>
       </c>
       <c r="S6">
-        <v>0.010657660751221</v>
+        <v>0.00427736017490582</v>
       </c>
       <c r="T6">
-        <v>9.728937520102288E-09</v>
+        <v>1.115930720647871E-09</v>
       </c>
       <c r="U6">
-        <v>8.991574874962604E-06</v>
+        <v>8.020479442162039E-07</v>
       </c>
       <c r="V6">
-        <v>0.06463772710118554</v>
+        <v>0.02633937974650205</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -901,67 +898,67 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.007212653539482061</v>
+        <v>0.009221071065710839</v>
       </c>
       <c r="C7">
-        <v>2.42962404223995</v>
+        <v>2.613780895493587</v>
       </c>
       <c r="D7">
-        <v>0.06752647792574763</v>
+        <v>0.5237057609891221</v>
       </c>
       <c r="E7">
-        <v>0.0899438129819963</v>
+        <v>0.6594677425067157</v>
       </c>
       <c r="F7">
-        <v>6.667466592985258</v>
+        <v>27.28412874307842</v>
       </c>
       <c r="G7">
-        <v>1.333564837281013</v>
+        <v>0.6726728534818616</v>
       </c>
       <c r="H7">
-        <v>0.0006703911579184958</v>
+        <v>0.002558289069098505</v>
       </c>
       <c r="I7">
-        <v>0.0001889270912976202</v>
+        <v>0.001769465491310545</v>
       </c>
       <c r="J7">
-        <v>0.1039684450199083</v>
+        <v>0.244313098169867</v>
       </c>
       <c r="K7">
-        <v>1.811883978943903</v>
+        <v>7.418088293848303</v>
       </c>
       <c r="L7">
-        <v>0.1764031592991949</v>
+        <v>0.7194758512841691</v>
       </c>
       <c r="M7">
-        <v>0.4914189875315785</v>
+        <v>0.4853171482525888</v>
       </c>
       <c r="N7">
-        <v>0.4496055748951955</v>
+        <v>0.05620283019526251</v>
       </c>
       <c r="O7">
-        <v>7.31806371554639E-07</v>
+        <v>2.905570442685052E-06</v>
       </c>
       <c r="P7">
-        <v>0.003272784842707324</v>
+        <v>0.003190112523997041</v>
       </c>
       <c r="Q7">
-        <v>0.00629359406370378</v>
+        <v>0.005521833660243512</v>
       </c>
       <c r="R7">
-        <v>0.006805311793264682</v>
+        <v>0.005660185816703693</v>
       </c>
       <c r="S7">
-        <v>0.04477038563670922</v>
+        <v>0.04791135613047574</v>
       </c>
       <c r="T7">
-        <v>1.415166318226014E-08</v>
+        <v>1.676798372034764E-08</v>
       </c>
       <c r="U7">
-        <v>5.176531720925277E-06</v>
+        <v>7.051190009816063E-06</v>
       </c>
       <c r="V7">
-        <v>0.5972325441027778</v>
+        <v>0.1411066836010335</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -969,67 +966,67 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>0.002276159142919983</v>
+        <v>-0.0002334284147962786</v>
       </c>
       <c r="C8">
-        <v>0.163927059925728</v>
+        <v>-2.074519897803047</v>
       </c>
       <c r="D8">
-        <v>0.01652985353507713</v>
+        <v>-0.1045206270451842</v>
       </c>
       <c r="E8">
-        <v>0.0226272780072804</v>
+        <v>-0.1489782019876675</v>
       </c>
       <c r="F8">
-        <v>4.073295799447124</v>
+        <v>-4.958107920484865</v>
       </c>
       <c r="G8">
-        <v>0.06828633352966192</v>
+        <v>-0.01449179801041107</v>
       </c>
       <c r="H8">
-        <v>4.842529430966246E-05</v>
+        <v>-3.056035886139759E-05</v>
       </c>
       <c r="I8">
-        <v>9.173054771622815E-06</v>
+        <v>-8.164642669828742E-06</v>
       </c>
       <c r="J8">
-        <v>0.02773514881369562</v>
+        <v>-0.02036292990469167</v>
       </c>
       <c r="K8">
-        <v>0.3015071898811865</v>
+        <v>-1.426891945277325</v>
       </c>
       <c r="L8">
-        <v>0.009418586935991517</v>
+        <v>-0.001959240696215658</v>
       </c>
       <c r="M8">
-        <v>0.002912706071334986</v>
+        <v>-0.0006602907411501928</v>
       </c>
       <c r="N8">
-        <v>0.009177714644623077</v>
+        <v>-0.002445511084325116</v>
       </c>
       <c r="O8">
-        <v>8.146910470008898E-08</v>
+        <v>-3.056180821333179E-07</v>
       </c>
       <c r="P8">
-        <v>0.0007630774464761694</v>
+        <v>-8.807565124797616E-05</v>
       </c>
       <c r="Q8">
-        <v>0.0004023391393307432</v>
+        <v>-0.0004170514842425875</v>
       </c>
       <c r="R8">
-        <v>0.0004310165195894165</v>
+        <v>-0.0004239245794221087</v>
       </c>
       <c r="S8">
-        <v>0.004277360176548169</v>
+        <v>-0.001746331214682159</v>
       </c>
       <c r="T8">
-        <v>1.115930721979618E-09</v>
+        <v>-6.084104247887372E-09</v>
       </c>
       <c r="U8">
-        <v>8.020479444382542E-07</v>
+        <v>-2.378044346945909E-06</v>
       </c>
       <c r="V8">
-        <v>0.02633937972226272</v>
+        <v>-0.005864554526842846</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1037,67 +1034,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.00922107101169891</v>
+        <v>-0.0002753427476690128</v>
       </c>
       <c r="C9">
-        <v>2.613780887970535</v>
+        <v>-2.214513319585744</v>
       </c>
       <c r="D9">
-        <v>0.5237057575181827</v>
+        <v>-0.1870157234936943</v>
       </c>
       <c r="E9">
-        <v>0.6594677380169898</v>
+        <v>-0.2569630898292843</v>
       </c>
       <c r="F9">
-        <v>27.28412839570837</v>
+        <v>-5.026237650630921</v>
       </c>
       <c r="G9">
-        <v>0.67267285168887</v>
+        <v>-0.01608914918183898</v>
       </c>
       <c r="H9">
-        <v>0.002558289061277824</v>
+        <v>-3.786325293393094E-05</v>
       </c>
       <c r="I9">
-        <v>0.001769465490873187</v>
+        <v>-1.124408011327179E-05</v>
       </c>
       <c r="J9">
-        <v>0.2443130944452688</v>
+        <v>-0.02671993663112997</v>
       </c>
       <c r="K9">
-        <v>7.418088239561022</v>
+        <v>-3.001157491992002</v>
       </c>
       <c r="L9">
-        <v>0.7194758500647157</v>
+        <v>-0.002177916290353508</v>
       </c>
       <c r="M9">
-        <v>0.4853171468461986</v>
+        <v>-0.0008949903707997803</v>
       </c>
       <c r="N9">
-        <v>0.05620282934899932</v>
+        <v>-0.002786364382609401</v>
       </c>
       <c r="O9">
-        <v>2.905570439752425E-06</v>
+        <v>-4.507436071426937E-07</v>
       </c>
       <c r="P9">
-        <v>0.003190112501125341</v>
+        <v>-0.0001036972052561061</v>
       </c>
       <c r="Q9">
-        <v>0.005521833637003298</v>
+        <v>-0.0005020098366573567</v>
       </c>
       <c r="R9">
-        <v>0.005660185792454638</v>
+        <v>-0.0005098603455399263</v>
       </c>
       <c r="S9">
-        <v>0.04791135604329913</v>
+        <v>-0.002204769077090927</v>
       </c>
       <c r="T9">
-        <v>1.676798366014465E-08</v>
+        <v>-6.572265900158807E-09</v>
       </c>
       <c r="U9">
-        <v>7.051189963497522E-06</v>
+        <v>-2.899221365956725E-06</v>
       </c>
       <c r="V9">
-        <v>0.1411066830116038</v>
+        <v>-0.0065037758088094</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1105,67 +1102,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>-0.0002334284151913253</v>
+        <v>0.0005037847483675853</v>
       </c>
       <c r="C10">
-        <v>-2.074519898004651</v>
+        <v>0.2084098687080026</v>
       </c>
       <c r="D10">
-        <v>-0.1045206270164953</v>
+        <v>0.01250018014142951</v>
       </c>
       <c r="E10">
-        <v>-0.1489782019528639</v>
+        <v>0.01630201342149615</v>
       </c>
       <c r="F10">
-        <v>-4.958107917182352</v>
+        <v>0.6245138530786037</v>
       </c>
       <c r="G10">
-        <v>-0.01449179805574717</v>
+        <v>0.05471552662151989</v>
       </c>
       <c r="H10">
-        <v>-3.056035889324084E-05</v>
+        <v>0.0001634954728800888</v>
       </c>
       <c r="I10">
-        <v>-8.164642681318599E-06</v>
+        <v>1.188510951371724E-05</v>
       </c>
       <c r="J10">
-        <v>-0.02036293004691922</v>
+        <v>0.01662770294309067</v>
       </c>
       <c r="K10">
-        <v>-1.426891944934845</v>
+        <v>0.2947845057642262</v>
       </c>
       <c r="L10">
-        <v>-0.001959240710167119</v>
+        <v>0.06328972170349524</v>
       </c>
       <c r="M10">
-        <v>-0.0006602901401038362</v>
+        <v>0.0434939630189819</v>
       </c>
       <c r="N10">
-        <v>-0.00244551111962943</v>
+        <v>0.002096436306860821</v>
       </c>
       <c r="O10">
-        <v>-3.05618082173466E-07</v>
+        <v>2.090750676851286E-07</v>
       </c>
       <c r="P10">
-        <v>-8.807565147393216E-05</v>
+        <v>0.0001699537493967111</v>
       </c>
       <c r="Q10">
-        <v>-0.0004170514847762045</v>
+        <v>0.0004089896543456381</v>
       </c>
       <c r="R10">
-        <v>-0.0004239245799777066</v>
+        <v>0.0004182080295066609</v>
       </c>
       <c r="S10">
-        <v>-0.001746331216603804</v>
+        <v>0.00349502833271054</v>
       </c>
       <c r="T10">
-        <v>-6.084104243232339E-09</v>
+        <v>1.257077541209975E-09</v>
       </c>
       <c r="U10">
-        <v>-2.378044347674189E-06</v>
+        <v>4.313872755236725E-07</v>
       </c>
       <c r="V10">
-        <v>-0.005864554545139257</v>
+        <v>0.01031957049765237</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1173,67 +1170,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>-0.0002753427497100333</v>
+        <v>0.01162068850337724</v>
       </c>
       <c r="C11">
-        <v>-2.214513319925559</v>
+        <v>3.46688615102927</v>
       </c>
       <c r="D11">
-        <v>-0.1870157235747801</v>
+        <v>0.7086161924660153</v>
       </c>
       <c r="E11">
-        <v>-0.2569630899352862</v>
+        <v>0.8912456429587631</v>
       </c>
       <c r="F11">
-        <v>-5.026237657353322</v>
+        <v>36.42125328063004</v>
       </c>
       <c r="G11">
-        <v>-0.01608914925988595</v>
+        <v>0.8974062344268673</v>
       </c>
       <c r="H11">
-        <v>-3.786325311935912E-05</v>
+        <v>0.003207825047486184</v>
       </c>
       <c r="I11">
-        <v>-1.124408013154186E-05</v>
+        <v>0.00141395819065781</v>
       </c>
       <c r="J11">
-        <v>-0.02671993681274197</v>
+        <v>0.3160316884539711</v>
       </c>
       <c r="K11">
-        <v>-3.001157493309499</v>
+        <v>9.502532566680514</v>
       </c>
       <c r="L11">
-        <v>-0.002177916313008851</v>
+        <v>0.9889259695770695</v>
       </c>
       <c r="M11">
-        <v>-0.0008949893993547407</v>
+        <v>0.6648528925070202</v>
       </c>
       <c r="N11">
-        <v>-0.002786364430799671</v>
+        <v>0.05724205137437732</v>
       </c>
       <c r="O11">
-        <v>-4.507436072290293E-07</v>
+        <v>3.638717815256892E-06</v>
       </c>
       <c r="P11">
-        <v>-0.0001036972060632155</v>
+        <v>0.003997746784728752</v>
       </c>
       <c r="Q11">
-        <v>-0.0005020098377586593</v>
+        <v>0.007253941192545052</v>
       </c>
       <c r="R11">
-        <v>-0.0005098603466828207</v>
+        <v>0.00743266473762194</v>
       </c>
       <c r="S11">
-        <v>-0.00220476908005141</v>
+        <v>0.05870154957550545</v>
       </c>
       <c r="T11">
-        <v>-6.572265893335588E-09</v>
+        <v>2.217736199506595E-08</v>
       </c>
       <c r="U11">
-        <v>-2.899221367690403E-06</v>
+        <v>9.091799488262178E-06</v>
       </c>
       <c r="V11">
-        <v>-0.006503775839088587</v>
+        <v>0.1818204866271855</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1241,67 +1238,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>0.0005037847482577156</v>
+        <v>6.876391547045181E-05</v>
       </c>
       <c r="C12">
-        <v>0.208409868660045</v>
+        <v>0.01267498646911488</v>
       </c>
       <c r="D12">
-        <v>0.01250018010566031</v>
+        <v>0.0005586343135781536</v>
       </c>
       <c r="E12">
-        <v>0.01630201337557304</v>
+        <v>0.0007628075797404136</v>
       </c>
       <c r="F12">
-        <v>0.6245138480479477</v>
+        <v>0.09879227021360251</v>
       </c>
       <c r="G12">
-        <v>0.05471552661970439</v>
+        <v>0.003740655962110803</v>
       </c>
       <c r="H12">
-        <v>0.0001634954727472245</v>
+        <v>3.560825303892005E-06</v>
       </c>
       <c r="I12">
-        <v>1.188510950836608E-05</v>
+        <v>6.615999172037018E-06</v>
       </c>
       <c r="J12">
-        <v>0.01662770285926765</v>
+        <v>0.0005924562653420943</v>
       </c>
       <c r="K12">
-        <v>0.2947845051926699</v>
+        <v>0.02391710875318337</v>
       </c>
       <c r="L12">
-        <v>0.06328972159615262</v>
+        <v>0.000519610933934056</v>
       </c>
       <c r="M12">
-        <v>0.04349396298204882</v>
+        <v>0.01378097620692509</v>
       </c>
       <c r="N12">
-        <v>0.002096436302736383</v>
+        <v>0.0001228830634652573</v>
       </c>
       <c r="O12">
-        <v>2.090750676482323E-07</v>
+        <v>3.059840904972062E-08</v>
       </c>
       <c r="P12">
-        <v>0.0001699537492200262</v>
+        <v>2.999180744701116E-05</v>
       </c>
       <c r="Q12">
-        <v>0.0004089896544470826</v>
+        <v>5.493026620084936E-05</v>
       </c>
       <c r="R12">
-        <v>0.0004182080296160013</v>
+        <v>5.664663302811032E-05</v>
       </c>
       <c r="S12">
-        <v>0.00349502832962193</v>
+        <v>0.0002171164604514649</v>
       </c>
       <c r="T12">
-        <v>1.257077540562707E-09</v>
+        <v>1.836207556909116E-10</v>
       </c>
       <c r="U12">
-        <v>4.313872749518803E-07</v>
+        <v>3.859231543466078E-08</v>
       </c>
       <c r="V12">
-        <v>0.01031957050165928</v>
+        <v>0.001192743117574796</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1309,67 +1306,67 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>0.0116206885944473</v>
+        <v>0.007212653640024182</v>
       </c>
       <c r="C13">
-        <v>3.466886158213003</v>
+        <v>2.429624053238012</v>
       </c>
       <c r="D13">
-        <v>0.708616197908385</v>
+        <v>0.06752648382199759</v>
       </c>
       <c r="E13">
-        <v>0.8912456499507183</v>
+        <v>0.08994382056071042</v>
       </c>
       <c r="F13">
-        <v>36.42125374729572</v>
+        <v>6.667467114286603</v>
       </c>
       <c r="G13">
-        <v>0.8974062361946736</v>
+        <v>1.333564839697128</v>
       </c>
       <c r="H13">
-        <v>0.003207825053302594</v>
+        <v>0.0006703911668301036</v>
       </c>
       <c r="I13">
-        <v>0.001413958191013189</v>
+        <v>0.0001889270918615518</v>
       </c>
       <c r="J13">
-        <v>0.3160316902508437</v>
+        <v>0.1039684482383464</v>
       </c>
       <c r="K13">
-        <v>9.502532647331684</v>
+        <v>1.811884067669276</v>
       </c>
       <c r="L13">
-        <v>0.9889259696092459</v>
+        <v>0.1764031594931236</v>
       </c>
       <c r="M13">
-        <v>0.6648528903855719</v>
+        <v>0.4914189888714166</v>
       </c>
       <c r="N13">
-        <v>0.05724205228301608</v>
+        <v>0.4496055761127467</v>
       </c>
       <c r="O13">
-        <v>3.638717817510671E-06</v>
+        <v>7.318063747138019E-07</v>
       </c>
       <c r="P13">
-        <v>0.00399774681612183</v>
+        <v>0.003272784879714431</v>
       </c>
       <c r="Q13">
-        <v>0.007253941226180792</v>
+        <v>0.006293594107031229</v>
       </c>
       <c r="R13">
-        <v>0.007432664772228537</v>
+        <v>0.006805311837985712</v>
       </c>
       <c r="S13">
-        <v>0.05870154963974432</v>
+        <v>0.04477038570036634</v>
       </c>
       <c r="T13">
-        <v>2.217736203384326E-08</v>
+        <v>1.415166326882937E-08</v>
       </c>
       <c r="U13">
-        <v>9.091799539176116E-06</v>
+        <v>5.176531785476002E-06</v>
       </c>
       <c r="V13">
-        <v>0.1818204873875408</v>
+        <v>0.5972325450216731</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1377,67 +1374,67 @@
         <v>33</v>
       </c>
       <c r="B14">
-        <v>6.876391608866091E-05</v>
+        <v>6.147135073696899E-05</v>
       </c>
       <c r="C14">
-        <v>0.01267498654023365</v>
+        <v>0.01251362667154972</v>
       </c>
       <c r="D14">
-        <v>0.0005586343485664598</v>
+        <v>0.002720095328826065</v>
       </c>
       <c r="E14">
-        <v>0.0007628076247619055</v>
+        <v>0.003632189935034841</v>
       </c>
       <c r="F14">
-        <v>0.09879227340036667</v>
+        <v>0.4449601182318527</v>
       </c>
       <c r="G14">
-        <v>0.003740655977303657</v>
+        <v>0.002997337430376742</v>
       </c>
       <c r="H14">
-        <v>3.560825357901626E-06</v>
+        <v>6.328077088198639E-06</v>
       </c>
       <c r="I14">
-        <v>6.615999175393931E-06</v>
+        <v>7.587835169734185E-07</v>
       </c>
       <c r="J14">
-        <v>0.0005924562920579594</v>
+        <v>0.01590330353702531</v>
       </c>
       <c r="K14">
-        <v>0.02391710927914523</v>
+        <v>0.04162521529752077</v>
       </c>
       <c r="L14">
-        <v>0.0005196109362203441</v>
+        <v>0.0007996895080461902</v>
       </c>
       <c r="M14">
-        <v>0.01378097632224018</v>
+        <v>0.0004297653930553447</v>
       </c>
       <c r="N14">
-        <v>0.0001228830707678463</v>
+        <v>0.001242963908295756</v>
       </c>
       <c r="O14">
-        <v>3.059840907210775E-08</v>
+        <v>3.51889040326007E-09</v>
       </c>
       <c r="P14">
-        <v>2.999180768491896E-05</v>
+        <v>4.224294786735442E-05</v>
       </c>
       <c r="Q14">
-        <v>5.493026648776709E-05</v>
+        <v>3.261600116307281E-05</v>
       </c>
       <c r="R14">
-        <v>5.664663332187128E-05</v>
+        <v>3.406489094102742E-05</v>
       </c>
       <c r="S14">
-        <v>0.0002171164609665569</v>
+        <v>9.636116587863271E-05</v>
       </c>
       <c r="T14">
-        <v>1.83620757184127E-10</v>
+        <v>6.786924225166856E-11</v>
       </c>
       <c r="U14">
-        <v>3.859231586016256E-08</v>
+        <v>1.007069809362462E-07</v>
       </c>
       <c r="V14">
-        <v>0.001192743123158496</v>
+        <v>0.0009732159051051726</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1445,67 +1442,67 @@
         <v>34</v>
       </c>
       <c r="B15">
-        <v>6.147135073640263E-05</v>
+        <v>5.152698632658018E-05</v>
       </c>
       <c r="C15">
-        <v>0.01251362667722402</v>
+        <v>0.01562895856853696</v>
       </c>
       <c r="D15">
-        <v>0.00272009532821702</v>
+        <v>0.003280850424880714</v>
       </c>
       <c r="E15">
-        <v>0.003632189934305927</v>
+        <v>0.004121580270228477</v>
       </c>
       <c r="F15">
-        <v>0.4449601181752865</v>
+        <v>0.1675159704214673</v>
       </c>
       <c r="G15">
-        <v>0.0029973374320459</v>
+        <v>0.004035239640424262</v>
       </c>
       <c r="H15">
-        <v>6.328077089128554E-06</v>
+        <v>1.319445446814301E-05</v>
       </c>
       <c r="I15">
-        <v>7.587835168084368E-07</v>
+        <v>8.967658085155061E-07</v>
       </c>
       <c r="J15">
-        <v>0.01590330354202315</v>
+        <v>0.001386874412563387</v>
       </c>
       <c r="K15">
-        <v>0.0416252152888077</v>
+        <v>0.04098247136339588</v>
       </c>
       <c r="L15">
-        <v>0.0007996895094933108</v>
+        <v>0.004494110598037063</v>
       </c>
       <c r="M15">
-        <v>0.0004297653602343779</v>
+        <v>0.003112725615555914</v>
       </c>
       <c r="N15">
-        <v>0.001242963909845834</v>
+        <v>0.0002282867195839658</v>
       </c>
       <c r="O15">
-        <v>3.518890405130061E-09</v>
+        <v>1.517327570489932E-08</v>
       </c>
       <c r="P15">
-        <v>4.224294787514784E-05</v>
+        <v>1.756857686267633E-05</v>
       </c>
       <c r="Q15">
-        <v>3.261600117310153E-05</v>
+        <v>3.243214837968538E-05</v>
       </c>
       <c r="R15">
-        <v>3.406489095235073E-05</v>
+        <v>3.321219471098852E-05</v>
       </c>
       <c r="S15">
-        <v>9.636116606757769E-05</v>
+        <v>0.0002611502836789233</v>
       </c>
       <c r="T15">
-        <v>6.786924197705596E-11</v>
+        <v>1.000313282648596E-10</v>
       </c>
       <c r="U15">
-        <v>1.007069809614628E-07</v>
+        <v>4.01441137357887E-08</v>
       </c>
       <c r="V15">
-        <v>0.000973215905846965</v>
+        <v>0.0007925119103643386</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1513,67 +1510,67 @@
         <v>35</v>
       </c>
       <c r="B16">
-        <v>5.152698633488256E-05</v>
+        <v>0.0002593345370602096</v>
       </c>
       <c r="C16">
-        <v>0.01562895856438135</v>
+        <v>0.1887243722020216</v>
       </c>
       <c r="D16">
-        <v>0.0032808504248851</v>
+        <v>0.004759688452918195</v>
       </c>
       <c r="E16">
-        <v>0.004121580270126511</v>
+        <v>0.008440847504864938</v>
       </c>
       <c r="F16">
-        <v>0.167515970349165</v>
+        <v>3.666851706789793</v>
       </c>
       <c r="G16">
-        <v>0.004035239639139889</v>
+        <v>0.0596896221073157</v>
       </c>
       <c r="H16">
-        <v>1.319445446228906E-05</v>
+        <v>1.313613316956878E-05</v>
       </c>
       <c r="I16">
-        <v>8.967658083029249E-07</v>
+        <v>5.253937552543224E-06</v>
       </c>
       <c r="J16">
-        <v>0.001386874411949662</v>
+        <v>0.009532334284527847</v>
       </c>
       <c r="K16">
-        <v>0.04098247135615341</v>
+        <v>0.1495014201108294</v>
       </c>
       <c r="L16">
-        <v>0.004494110594298383</v>
+        <v>0.003059727255353055</v>
       </c>
       <c r="M16">
-        <v>0.003112725621210491</v>
+        <v>0.00718204799625448</v>
       </c>
       <c r="N16">
-        <v>0.0002282867198473158</v>
+        <v>0.003818690887296136</v>
       </c>
       <c r="O16">
-        <v>1.517327570306732E-08</v>
+        <v>8.613361481801667E-08</v>
       </c>
       <c r="P16">
-        <v>1.756857686280083E-05</v>
+        <v>0.0001343399064462366</v>
       </c>
       <c r="Q16">
-        <v>3.243214837111015E-05</v>
+        <v>0.0002997807849105425</v>
       </c>
       <c r="R16">
-        <v>3.321219470037428E-05</v>
+        <v>0.0003393528927059438</v>
       </c>
       <c r="S16">
-        <v>0.0002611502835959214</v>
+        <v>0.0003055525506516359</v>
       </c>
       <c r="T16">
-        <v>1.000313282990573E-10</v>
+        <v>7.458483365758134E-10</v>
       </c>
       <c r="U16">
-        <v>4.014411372809707E-08</v>
+        <v>3.263314778751178E-07</v>
       </c>
       <c r="V16">
-        <v>0.0007925119100708976</v>
+        <v>0.02621085255088883</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1581,135 +1578,67 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>0.0002593345370551827</v>
+        <v>0.001909324814764789</v>
       </c>
       <c r="C17">
-        <v>0.18872437227339</v>
+        <v>0.4482228373147847</v>
       </c>
       <c r="D17">
-        <v>0.004759688442843975</v>
+        <v>0.04172316212947142</v>
       </c>
       <c r="E17">
-        <v>0.008440847492669133</v>
+        <v>0.05532885978868127</v>
       </c>
       <c r="F17">
-        <v>3.666851706197559</v>
+        <v>1.430225649424889</v>
       </c>
       <c r="G17">
-        <v>0.05968962212601231</v>
+        <v>0.1121827496323688</v>
       </c>
       <c r="H17">
-        <v>1.313613322271259E-05</v>
+        <v>0.0003351893754879208</v>
       </c>
       <c r="I17">
-        <v>5.253937556533273E-06</v>
+        <v>0.002654898934410975</v>
       </c>
       <c r="J17">
-        <v>0.00953233434228168</v>
+        <v>0.02388455149878864</v>
       </c>
       <c r="K17">
-        <v>0.1495014199924609</v>
+        <v>1.084906538055848</v>
       </c>
       <c r="L17">
-        <v>0.003059727266934657</v>
+        <v>0.04035979358520436</v>
       </c>
       <c r="M17">
-        <v>0.007182048006893461</v>
+        <v>0.01655610155863962</v>
       </c>
       <c r="N17">
-        <v>0.00381869089767567</v>
+        <v>0.005003063684555141</v>
       </c>
       <c r="O17">
-        <v>8.613361484830661E-08</v>
+        <v>4.895991397794454E-07</v>
       </c>
       <c r="P17">
-        <v>0.0001343399065090863</v>
+        <v>0.000978592753401364</v>
       </c>
       <c r="Q17">
-        <v>0.0002997807850156278</v>
+        <v>0.001288717534956646</v>
       </c>
       <c r="R17">
-        <v>0.0003393528928181115</v>
+        <v>0.001337147748480474</v>
       </c>
       <c r="S17">
-        <v>0.0003055525513624614</v>
+        <v>0.003536725625173151</v>
       </c>
       <c r="T17">
-        <v>7.458483369041239E-10</v>
+        <v>2.25961368896663E-09</v>
       </c>
       <c r="U17">
-        <v>3.263314781474401E-07</v>
+        <v>1.367271737179326E-06</v>
       </c>
       <c r="V17">
-        <v>0.02621085255631113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18">
-        <v>0.001909324827723247</v>
-      </c>
-      <c r="C18">
-        <v>0.448222837359727</v>
-      </c>
-      <c r="D18">
-        <v>0.04172316329759251</v>
-      </c>
-      <c r="E18">
-        <v>0.05532886128070266</v>
-      </c>
-      <c r="F18">
-        <v>1.430225758568945</v>
-      </c>
-      <c r="G18">
-        <v>0.1121827496919154</v>
-      </c>
-      <c r="H18">
-        <v>0.0003351893768044693</v>
-      </c>
-      <c r="I18">
-        <v>0.002654898934441631</v>
-      </c>
-      <c r="J18">
-        <v>0.02388455117393549</v>
-      </c>
-      <c r="K18">
-        <v>1.084906556007932</v>
-      </c>
-      <c r="L18">
-        <v>0.04035979377230808</v>
-      </c>
-      <c r="M18">
-        <v>0.0165561016178727</v>
-      </c>
-      <c r="N18">
-        <v>0.005003063542684618</v>
-      </c>
-      <c r="O18">
-        <v>4.895991400590056E-07</v>
-      </c>
-      <c r="P18">
-        <v>0.000978592756813119</v>
-      </c>
-      <c r="Q18">
-        <v>0.001288717534741699</v>
-      </c>
-      <c r="R18">
-        <v>0.001337147748327696</v>
-      </c>
-      <c r="S18">
-        <v>0.003536725633874565</v>
-      </c>
-      <c r="T18">
-        <v>2.259613695438079E-09</v>
-      </c>
-      <c r="U18">
-        <v>1.367271742397717E-06</v>
-      </c>
-      <c r="V18">
-        <v>0.02772364848026701</v>
+        <v>0.02772364847770264</v>
       </c>
     </row>
   </sheetData>
